--- a/data/trans_dic/P25A_7_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_7_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente)</t>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,87%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,86%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>11,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>21,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,39%</t>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,91</t>
+          <t>0,84; 7,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,43</t>
+          <t>1,2; 8,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,93</t>
+          <t>0,0; 7,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 57,43</t>
+          <t>0,91; 8,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,3</t>
+          <t>3,05; 14,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,63; 18,93</t>
+          <t>2,81; 13,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 21,73</t>
+          <t>3,32; 12,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,65; 93,01</t>
+          <t>6,45; 18,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,46; 7,62</t>
+          <t>6,62; 19,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,48; 10,97</t>
+          <t>13,76; 29,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 11,57</t>
+          <t>11,11; 23,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>48,37; 77,95</t>
+          <t>7,19; 20,05</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 8,12</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 10,92</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 10,6</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 16,45</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 16,03</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 13,89</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,77%</t>
+          <t>14,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,9%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>6,74%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>11,45%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>70,86%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>15,53%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>15,01%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,26</t>
+          <t>1,77; 8,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 9,29</t>
+          <t>2,59; 9,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,23; 20,44</t>
+          <t>6,09; 20,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,81; 95,28</t>
+          <t>8,54; 22,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 20,23</t>
+          <t>4,85; 16,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,52</t>
+          <t>8,49; 28,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 17,66</t>
+          <t>9,52; 19,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,84; 75,3</t>
+          <t>5,23; 13,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,03; 12,15</t>
+          <t>8,99; 17,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,42</t>
+          <t>11,21; 23,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,5; 16,93</t>
+          <t>11,47; 22,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>58,43; 80,86</t>
+          <t>9,37; 20,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,41; 12,49</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,39; 9,5</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 17,42</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 20,64</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>9,33; 17,46</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 22,66</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68,07%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>10,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>13,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>70,02%</t>
+          <t>21,16%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>9,46%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>10,97%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>17,14%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,9; 10,02</t>
+          <t>4,33; 10,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,1; 10,01</t>
+          <t>4,23; 10,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,59</t>
+          <t>5,28; 11,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,3; 81,95</t>
+          <t>8,96; 18,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,26; 19,54</t>
+          <t>5,75; 15,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 14,75</t>
+          <t>6,29; 14,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 17,67</t>
+          <t>8,49; 15,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,88; 82,3</t>
+          <t>8,07; 14,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 13,37</t>
+          <t>10,94; 17,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 11,51</t>
+          <t>15,51; 25,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 13,57</t>
+          <t>19,58; 32,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,61; 78,54</t>
+          <t>16,66; 26,43</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 12,34</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 11,28</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 13,5</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 20,25</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13,67; 21,19</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 18,61</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,79%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>24,98%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>24,6%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>19,98%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 14,49</t>
+          <t>6,46; 14,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 14,77</t>
+          <t>8,31; 15,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 21,14</t>
+          <t>10,55; 21,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,3; 72,08</t>
+          <t>15,91; 27,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 25,44</t>
+          <t>13,45; 24,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>14,65; 22,84</t>
+          <t>10,11; 24,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,97; 27,6</t>
+          <t>16,8; 25,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,82; 72,08</t>
+          <t>14,7; 22,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,22</t>
+          <t>19,1; 27,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,34; 17,75</t>
+          <t>22,45; 34,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,97; 22,78</t>
+          <t>24,43; 36,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,07; 68,92</t>
+          <t>20,23; 30,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 18,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,56; 17,91</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>16,13; 23,04</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>20,14; 29,03</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>20,26; 28,27</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 24,96</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>28,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>36,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>74,57%</t>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>19,31%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>33,61%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>32,2%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>24,74%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 19,32</t>
+          <t>10,87; 19,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 16,3</t>
+          <t>8,89; 16,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,85; 23,08</t>
+          <t>13,89; 23,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>62,26; 83,96</t>
+          <t>22,06; 35,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>21,53; 34,28</t>
+          <t>21,57; 35,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,96; 31,98</t>
+          <t>11,66; 21,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 26,72</t>
+          <t>22,9; 35,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>66,18; 82,67</t>
+          <t>21,55; 32,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,47; 25,39</t>
+          <t>16,83; 26,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,95; 22,86</t>
+          <t>32,48; 45,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,85; 23,77</t>
+          <t>29,49; 43,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>67,19; 80,77</t>
+          <t>25,85; 40,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 25,98</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15,78; 22,89</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>16,62; 23,73</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>29,02; 38,45</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>27,82; 37,01</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>20,47; 29,65</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,16%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,71%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>27,07%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>27,23%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>27,62%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>27,22%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>21,41%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>25,42%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 26,09</t>
+          <t>11,86; 25,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 18,31</t>
+          <t>6,88; 17,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,55; 23,49</t>
+          <t>10,61; 23,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>29,06; 59,02</t>
+          <t>7,45; 18,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,31; 41,37</t>
+          <t>10,06; 23,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>23,77; 35,8</t>
+          <t>10,17; 23,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,07; 41,88</t>
+          <t>29,07; 42,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,86; 69,71</t>
+          <t>24,61; 36,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,31; 32,28</t>
+          <t>29,76; 43,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,86; 25,57</t>
+          <t>19,7; 36,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>21,99; 31,94</t>
+          <t>25,27; 39,63</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,77; 63,98</t>
+          <t>19,55; 36,63</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 33,18</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>18,0; 26,55</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>22,82; 32,24</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>16,44; 27,66</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 30,59</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>17,66; 28,73</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>22,68%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>16,06%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>20,75%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>18,07%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,27; 10,95</t>
+          <t>7,62; 11,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,83; 10,0</t>
+          <t>6,9; 10,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,65; 13,63</t>
+          <t>9,63; 14,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56,02; 68,77</t>
+          <t>13,46; 18,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,01; 22,5</t>
+          <t>12,49; 17,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 19,77</t>
+          <t>11,11; 16,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>18,0; 22,32</t>
+          <t>17,85; 22,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>61,5; 71,73</t>
+          <t>15,97; 19,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,07; 16,12</t>
+          <t>18,45; 22,71</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,83; 14,48</t>
+          <t>22,8; 28,52</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,4; 17,52</t>
+          <t>24,25; 29,71</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>61,04; 68,59</t>
+          <t>20,06; 25,64</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>13,49; 16,44</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 14,37</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 17,65</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 22,53</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18,93; 22,55</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 20,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15284</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17743</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9898</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1547</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3111</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31499</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31302</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54271</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>56754</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7860</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6468</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59347</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>46587</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>72014</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>66653</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9407</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9578</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>90846</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4206; 37695</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6265; 43186</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 38795</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>383; 3520</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1345; 6241</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>13253; 62299</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15547; 57703</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33209; 93140</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34004; 97665</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5146; 10845</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4283; 9192</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>34321; 95712</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25745; 78510</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>47919; 113499</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>40605; 108163</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6400; 13071</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>6653; 13246</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>60384; 131697</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23585</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29167</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>64179</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>7378</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>89105</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>73066</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42925</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66043</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7622</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7647</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73312</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>96650</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>72092</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>130221</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15001</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>12080</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>162417</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10069; 47405</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>14580; 52068</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36017; 123491</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4260; 11456</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2376; 8245</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>49010; 166474</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>49137; 102052</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>26559; 67468</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>46278; 92043</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5236; 10872</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5253; 10462</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47336; 103565</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>69639; 135554</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>47004; 101682</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>94253; 192807</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>11248; 19935</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8846; 16545</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>113601; 245218</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>48574</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45910</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53966</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7969</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6060</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>63705</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>83705</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>77839</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>98498</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10861</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13763</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>151814</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>132279</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>123749</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>152463</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>18829</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>19823</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>215519</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>29692; 73931</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>28771; 68534</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35917; 79405</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5396; 11106</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3493; 9185</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>42732; 97211</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>60496; 113599</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57823; 103131</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77701; 127515</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8333; 13778</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10741; 17551</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>119541; 189618</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>101437; 172629</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>95350; 157669</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>118157; 187609</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>15389; 23071</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15806; 24497</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>173582; 259810</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>63018</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>72631</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>94418</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12483</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10540</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>98096</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>141180</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>124115</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>152502</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>14695</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15939</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>165223</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>204198</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>196746</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>246920</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>27178</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>26479</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>263319</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>41832; 96172</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53506; 97600</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67444; 138839</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9273; 16058</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7663; 14166</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>66356; 161983</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>114476; 174527</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>98955; 153567</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>125342; 179324</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11715; 17947</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>13018; 19248</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>133824; 200063</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>162876; 250732</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>165397; 235949</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>208970; 298493</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>22251; 32067</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>22335; 31171</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>221171; 328856</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>72776</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62124</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90713</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12654</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12583</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>80786</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>146200</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>132042</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>111355</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>18609</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>17025</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>169547</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>218976</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>194166</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>202069</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>31263</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>29608</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>250333</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>53553; 98295</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44812; 83801</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>68544; 115803</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>9812; 15994</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9731; 15802</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>57721; 108633</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>114964; 179851</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>108063; 160963</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>86692; 136309</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15759; 21859</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13815; 20274</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>133605; 208309</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>178716; 258403</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>158612; 230161</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>167580; 239336</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>26989; 35760</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>25584; 34037</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>207181; 300079</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>95233</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>60297</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>81880</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5670</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>7301</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>92783</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>253529</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>209684</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>250889</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>17999</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>20536</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>200004</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>348762</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>269982</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>332768</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>23669</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>27836</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>292786</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>64671; 140977</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>36431; 93528</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>56489; 126425</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>3491; 8459</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4613; 10723</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>57582; 130835</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>208657; 305585</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>171001; 251483</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>205402; 299715</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>12556; 23064</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>16091; 25235</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>143586; 269105</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>290187; 419025</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>220326; 325003</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>279037; 394180</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>18178; 30577</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>22771; 33507</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>229690; 373722</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>379.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>416.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>496.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>439.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>318470</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>287872</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>395054</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>47701</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>44027</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>455973</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>728982</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>640877</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>736041</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>77647</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>81377</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>819247</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1047452</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>928749</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1131094</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>125347</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>125404</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1275220</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>261921; 391602</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>237611; 346639</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>331702; 494510</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>40609; 54633</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>37690; 51303</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>382640; 577498</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>642361; 816926</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>576370; 709901</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>664455; 817687</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>68917; 86204</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>73465; 90009</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>724883; 926228</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>949606; 1156955</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>846068; 1013567</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1027337; 1242953</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>113234; 136083</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>114462; 136378</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1149884; 1423464</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
